--- a/output/part2/January Anomaly table 3 panel B.xlsx
+++ b/output/part2/January Anomaly table 3 panel B.xlsx
@@ -487,31 +487,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.03143271023634317</v>
+        <v>-0.03082631283819602</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.005050693985442833</v>
+        <v>-0.005056845917873989</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02638201625090033</v>
+        <v>0.02576946692032203</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.01709381460096622</v>
+        <v>-0.01711561001872067</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005163898942450177</v>
+        <v>0.005019683925551428</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02225771354341639</v>
+        <v>0.02213529394427211</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.03286547202141867</v>
+        <v>-0.03220074006156315</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.005813551895815949</v>
+        <v>-0.005809508998377245</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02705192012560271</v>
+        <v>0.0263912310631859</v>
       </c>
     </row>
     <row r="3">
@@ -521,31 +521,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-8.228610245275615</v>
+        <v>-8.036569780185447</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.256685463081865</v>
+        <v>-3.230295876237126</v>
       </c>
       <c r="D3" t="n">
-        <v>6.43844294578421</v>
+        <v>6.271314672466154</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.956947866315099</v>
+        <v>-1.946945461245942</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6340201324048954</v>
+        <v>0.616093821865508</v>
       </c>
       <c r="G3" t="n">
-        <v>2.224592540306626</v>
+        <v>2.210986231395588</v>
       </c>
       <c r="H3" t="n">
-        <v>-8.03478046311432</v>
+        <v>-7.835381477803478</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.77416612003951</v>
+        <v>-3.72782680081955</v>
       </c>
       <c r="J3" t="n">
-        <v>6.178611399934717</v>
+        <v>6.007255198538726</v>
       </c>
     </row>
     <row r="4">
@@ -555,31 +555,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.004693276635217668</v>
+        <v>-0.004661095582158896</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.03059711616947156</v>
+        <v>-0.030189061244545</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.02590383953425388</v>
+        <v>-0.02552796566238611</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0006355936150347166</v>
+        <v>0.0004984121056827407</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01731573445818409</v>
+        <v>-0.01739003559418116</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.01795132807321881</v>
+        <v>-0.0178884476998639</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.005028308187188965</v>
+        <v>-0.004976572019484296</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03192892081690107</v>
+        <v>-0.03147533186505806</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.02690061262971211</v>
+        <v>-0.02649875984557377</v>
       </c>
     </row>
     <row r="5">
@@ -589,31 +589,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2.648752734448975</v>
+        <v>-2.630313108400034</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.888618323453588</v>
+        <v>-7.785345075224539</v>
       </c>
       <c r="D5" t="n">
-        <v>-6.209618999147376</v>
+        <v>-6.119212993177544</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08208364397042618</v>
+        <v>0.06458239734864682</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.897303990496049</v>
+        <v>-1.888711724218734</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.592209378629454</v>
+        <v>-1.582700470627314</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.747176933338674</v>
+        <v>-2.717675675392429</v>
       </c>
       <c r="I5" t="n">
-        <v>-7.691742344058263</v>
+        <v>-7.583071731974711</v>
       </c>
       <c r="J5" t="n">
-        <v>-6.067322202047236</v>
+        <v>-5.97488561069238</v>
       </c>
     </row>
     <row r="6">
@@ -623,31 +623,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.02374828184013171</v>
+        <v>-0.02342215273724506</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.02056695632883415</v>
+        <v>-0.0190623797638646</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001399193268572504</v>
+        <v>0.002516792069104592</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.01777754424151823</v>
+        <v>-0.01769776634613321</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02907521886866599</v>
+        <v>-0.03022699454473628</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.009254054450364441</v>
+        <v>-0.01050598661388578</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0240419092680244</v>
+        <v>-0.02368893938930987</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.02101931620774938</v>
+        <v>-0.01921349393385429</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0009442712540326549</v>
+        <v>0.002323557407505581</v>
       </c>
     </row>
     <row r="7">
@@ -657,31 +657,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.31608322611692</v>
+        <v>-14.07297468304694</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.558352521086118</v>
+        <v>-1.447292722142628</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1057489321099035</v>
+        <v>0.1904472028066844</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.058526509239308</v>
+        <v>-3.042733541604245</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.703896165745173</v>
+        <v>-1.730167466056055</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.4623610264998838</v>
+        <v>-0.5152700278905659</v>
       </c>
       <c r="H7" t="n">
-        <v>-13.8558232268278</v>
+        <v>-13.60437493051527</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.416370036466748</v>
+        <v>-1.297404861260331</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06372944797638018</v>
+        <v>0.1570276570809566</v>
       </c>
     </row>
     <row r="8">
@@ -691,31 +691,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.01891699214792591</v>
+        <v>-0.01887976214910649</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.009900190970095193</v>
+        <v>-0.009986024609250032</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00901680117783071</v>
+        <v>0.008893737539856457</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.006778384793127953</v>
+        <v>-0.006955461886264878</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.006745141952585052</v>
+        <v>-0.006745122950106324</v>
       </c>
       <c r="G8" t="n">
-        <v>3.324284054291181e-05</v>
+        <v>0.0002103389361585551</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.01981726391600336</v>
+        <v>-0.01975895109604835</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0097042920204451</v>
+        <v>-0.009797885875157605</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01011297189555826</v>
+        <v>0.009961065220890747</v>
       </c>
     </row>
     <row r="9">
@@ -725,31 +725,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-14.10257078170554</v>
+        <v>-14.01173866064849</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.183680935216802</v>
+        <v>-2.194973438689912</v>
       </c>
       <c r="D9" t="n">
-        <v>1.960111111728104</v>
+        <v>1.927046764729289</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.091488226562271</v>
+        <v>-1.113347176403197</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.7176797934792071</v>
+        <v>-0.7176782072707618</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004343822779434169</v>
+        <v>0.02738474512675352</v>
       </c>
       <c r="H9" t="n">
-        <v>-14.66247137768313</v>
+        <v>-14.54928713075365</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.987819796745119</v>
+        <v>-1.999101706271281</v>
       </c>
       <c r="J9" t="n">
-        <v>2.031142474935753</v>
+        <v>1.99323436691146</v>
       </c>
     </row>
     <row r="10">
@@ -759,31 +759,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0625089244634731</v>
+        <v>-0.05794748348224679</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04980294379226516</v>
+        <v>0.04588224654159778</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1123118682557382</v>
+        <v>0.1038297300238445</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04374717010824273</v>
+        <v>-0.04365653901349361</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04788681832988756</v>
+        <v>0.04591580320881272</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09163398843813031</v>
+        <v>0.08957234222230633</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.06398985365303372</v>
+        <v>-0.0590391536166881</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05007837318576996</v>
+        <v>0.04582088408332691</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1140682268388037</v>
+        <v>0.104860037700015</v>
       </c>
     </row>
     <row r="11">
@@ -793,31 +793,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-27.77447986700263</v>
+        <v>-27.57123576393514</v>
       </c>
       <c r="C11" t="n">
-        <v>10.38907460578123</v>
+        <v>9.627079508825682</v>
       </c>
       <c r="D11" t="n">
-        <v>18.93367609769552</v>
+        <v>18.30613601139137</v>
       </c>
       <c r="E11" t="n">
-        <v>-4.804643958987238</v>
+        <v>-5.397884545798369</v>
       </c>
       <c r="F11" t="n">
-        <v>3.14964613290701</v>
+        <v>3.490096742650915</v>
       </c>
       <c r="G11" t="n">
-        <v>4.698789998835527</v>
+        <v>5.122658474576468</v>
       </c>
       <c r="H11" t="n">
-        <v>-27.5439862956057</v>
+        <v>-27.02183002551662</v>
       </c>
       <c r="I11" t="n">
-        <v>9.828354369388999</v>
+        <v>8.984815616608014</v>
       </c>
       <c r="J11" t="n">
-        <v>18.11704475278493</v>
+        <v>17.37053659305661</v>
       </c>
     </row>
     <row r="12">
@@ -827,31 +827,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.01543932013075836</v>
+        <v>-0.01464359718487028</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0272900469740599</v>
+        <v>-0.02766748595229677</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.01185072684330155</v>
+        <v>-0.01302388876742649</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.004602117296066217</v>
+        <v>-0.004528650295218649</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03262491392162255</v>
+        <v>-0.0329428856829242</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02802279662555633</v>
+        <v>-0.02841423538770555</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.01616113863866173</v>
+        <v>-0.01530890529390277</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.02671881916148645</v>
+        <v>-0.02709645827700055</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.01055768052282472</v>
+        <v>-0.01178755298309777</v>
       </c>
     </row>
     <row r="13">
@@ -861,31 +861,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.29178085754995</v>
+        <v>-6.949808348017621</v>
       </c>
       <c r="C13" t="n">
-        <v>-8.782941668888009</v>
+        <v>-8.916270894945308</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.943242610702305</v>
+        <v>-3.247323539496628</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.5642717894654462</v>
+        <v>-0.5513260548627639</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.550292541343559</v>
+        <v>-3.583202424831959</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.29971727406921</v>
+        <v>-2.333070092466587</v>
       </c>
       <c r="H13" t="n">
-        <v>-7.340206824482644</v>
+        <v>-6.989633874342758</v>
       </c>
       <c r="I13" t="n">
-        <v>-8.057793858632877</v>
+        <v>-8.183091313295961</v>
       </c>
       <c r="J13" t="n">
-        <v>-2.465984894833452</v>
+        <v>-2.763960568367168</v>
       </c>
     </row>
   </sheetData>

--- a/output/part2/January Anomaly table 3 panel B.xlsx
+++ b/output/part2/January Anomaly table 3 panel B.xlsx
@@ -487,28 +487,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.03082631283819602</v>
+        <v>-0.01040750839319301</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.005056845917873989</v>
+        <v>0.01536195852712903</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02576946692032203</v>
+        <v>0.02576946692032204</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.01711561001872067</v>
+        <v>0.003733184982542351</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005019683925551428</v>
+        <v>0.02586847892681447</v>
       </c>
       <c r="G2" t="n">
         <v>0.02213529394427211</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.03220074006156315</v>
+        <v>-0.01177929377991478</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.005809508998377245</v>
+        <v>0.01461193728327112</v>
       </c>
       <c r="J2" t="n">
         <v>0.0263912310631859</v>
@@ -521,31 +521,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-8.036569780185447</v>
+        <v>-2.724789207282712</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.230295876237126</v>
+        <v>9.969000573783438</v>
       </c>
       <c r="D3" t="n">
-        <v>6.271314672466154</v>
+        <v>6.271314672466156</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.946945461245942</v>
+        <v>0.4393692802293092</v>
       </c>
       <c r="F3" t="n">
-        <v>0.616093821865508</v>
+        <v>3.189879333238036</v>
       </c>
       <c r="G3" t="n">
-        <v>2.210986231395588</v>
+        <v>2.210986231395589</v>
       </c>
       <c r="H3" t="n">
-        <v>-7.835381477803478</v>
+        <v>-2.881167142241754</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.72782680081955</v>
+        <v>9.629474010564575</v>
       </c>
       <c r="J3" t="n">
-        <v>6.007255198538726</v>
+        <v>6.007255198538727</v>
       </c>
     </row>
     <row r="4">
@@ -555,28 +555,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.004661095582158896</v>
+        <v>0.01575770886284412</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.030189061244545</v>
+        <v>-0.009770256799541988</v>
       </c>
       <c r="D4" t="n">
         <v>-0.02552796566238611</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0004984121056827407</v>
+        <v>0.02134720710694577</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01739003559418116</v>
+        <v>0.003458759407081866</v>
       </c>
       <c r="G4" t="n">
         <v>-0.0178884476998639</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.004976572019484296</v>
+        <v>0.01544487426216407</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03147533186505806</v>
+        <v>-0.0110538855834097</v>
       </c>
       <c r="J4" t="n">
         <v>-0.02649875984557377</v>
@@ -589,31 +589,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2.630313108400034</v>
+        <v>8.815095638005914</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.785345075224539</v>
+        <v>-2.529602500418542</v>
       </c>
       <c r="D5" t="n">
-        <v>-6.119212993177544</v>
+        <v>-6.119212993177546</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06458239734864682</v>
+        <v>2.856205246242416</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.888711724218734</v>
+        <v>0.3877597233500436</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.582700470627314</v>
+        <v>-1.582700470627313</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.717675675392429</v>
+        <v>8.344414833566645</v>
       </c>
       <c r="I5" t="n">
-        <v>-7.583071731974711</v>
+        <v>-2.676146817003333</v>
       </c>
       <c r="J5" t="n">
-        <v>-5.97488561069238</v>
+        <v>-5.974885610692383</v>
       </c>
     </row>
     <row r="6">
@@ -623,31 +623,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.02342215273724506</v>
+        <v>-0.003003348292242045</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0190623797638646</v>
+        <v>0.0007205268993811262</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002516792069104592</v>
+        <v>0.0025167920691046</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.01769776634613321</v>
+        <v>0.003151028655129795</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.03022699454473628</v>
+        <v>-0.008927837665045934</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.01050598661388578</v>
+        <v>-0.01050598661388577</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.02368893938930987</v>
+        <v>-0.003267493107661512</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01921349393385429</v>
+        <v>0.0003047013072843868</v>
       </c>
       <c r="J6" t="n">
-        <v>0.002323557407505581</v>
+        <v>0.002323557407505583</v>
       </c>
     </row>
     <row r="7">
@@ -657,31 +657,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.07297468304694</v>
+        <v>-1.886133016410254</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.447292722142628</v>
+        <v>0.05441760682093588</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1904472028066844</v>
+        <v>0.190447202806685</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.042733541604245</v>
+        <v>0.5829828188061983</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.730167466056055</v>
+        <v>-0.4941202625051233</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.5152700278905659</v>
+        <v>-0.5152700278905651</v>
       </c>
       <c r="H7" t="n">
-        <v>-13.60437493051527</v>
+        <v>-1.974162751967485</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.297404861260331</v>
+        <v>0.02048550360655775</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1570276570809566</v>
+        <v>0.1570276570809567</v>
       </c>
     </row>
     <row r="8">
@@ -691,31 +691,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.01887976214910649</v>
+        <v>0.001539042295896523</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.009986024609250032</v>
+        <v>0.01043277983575298</v>
       </c>
       <c r="D8" t="n">
-        <v>0.008893737539856457</v>
+        <v>0.008893737539856464</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.006955461886264878</v>
+        <v>0.01389333311499812</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.006745122950106324</v>
+        <v>0.01410367205115669</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0002103389361585551</v>
+        <v>0.0002103389361585697</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.01975895109604835</v>
+        <v>0.0006624951856000036</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.009797885875157605</v>
+        <v>0.01062356040649075</v>
       </c>
       <c r="J8" t="n">
-        <v>0.009961065220890747</v>
+        <v>0.009961065220890755</v>
       </c>
     </row>
     <row r="9">
@@ -725,31 +725,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-14.01173866064849</v>
+        <v>1.199237729511903</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.194973438689912</v>
+        <v>2.281340138799955</v>
       </c>
       <c r="D9" t="n">
-        <v>1.927046764729289</v>
+        <v>1.927046764729291</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.113347176403197</v>
+        <v>2.290924216553031</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.7176782072707618</v>
+        <v>1.520108524447973</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02738474512675352</v>
+        <v>0.02738474512675542</v>
       </c>
       <c r="H9" t="n">
-        <v>-14.54928713075365</v>
+        <v>0.5211298256416445</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.999101706271281</v>
+        <v>2.15731878419085</v>
       </c>
       <c r="J9" t="n">
-        <v>1.99323436691146</v>
+        <v>1.993234366911462</v>
       </c>
     </row>
     <row r="10">
@@ -759,28 +759,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.05794748348224679</v>
+        <v>-0.03752867903724377</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04588224654159778</v>
+        <v>0.06630105098660077</v>
       </c>
       <c r="D10" t="n">
         <v>0.1038297300238445</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04365653901349361</v>
+        <v>-0.0228077440122306</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04591580320881272</v>
+        <v>0.06676459821007574</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08957234222230633</v>
+        <v>0.08957234222230635</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.0590391536166881</v>
+        <v>-0.03861770733503975</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04582088408332691</v>
+        <v>0.06624233036497527</v>
       </c>
       <c r="J10" t="n">
         <v>0.104860037700015</v>
@@ -793,28 +793,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-27.57123576393514</v>
+        <v>-18.25569305206836</v>
       </c>
       <c r="C11" t="n">
-        <v>9.627079508825682</v>
+        <v>13.86819927988184</v>
       </c>
       <c r="D11" t="n">
         <v>18.30613601139137</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.397884545798369</v>
+        <v>-2.9248473381623</v>
       </c>
       <c r="F11" t="n">
-        <v>3.490096742650915</v>
+        <v>5.014398892289821</v>
       </c>
       <c r="G11" t="n">
-        <v>5.122658474576468</v>
+        <v>5.122658474576467</v>
       </c>
       <c r="H11" t="n">
-        <v>-27.02183002551662</v>
+        <v>-18.15355237459048</v>
       </c>
       <c r="I11" t="n">
-        <v>8.984815616608014</v>
+        <v>12.96388724564392</v>
       </c>
       <c r="J11" t="n">
         <v>17.37053659305661</v>
@@ -827,31 +827,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.01464359718487028</v>
+        <v>0.005775207260132731</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.02766748595229677</v>
+        <v>-0.007248681507293755</v>
       </c>
       <c r="D12" t="n">
         <v>-0.01302388876742649</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.004528650295218649</v>
+        <v>0.01632014470604434</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0329428856829242</v>
+        <v>-0.01209409068166118</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02841423538770555</v>
+        <v>-0.02841423538770553</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.01530890529390277</v>
+        <v>0.005112540987745586</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.02709645827700055</v>
+        <v>-0.006675011995352189</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.01178755298309777</v>
+        <v>-0.01178755298309778</v>
       </c>
     </row>
     <row r="13">
@@ -861,31 +861,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-6.949808348017621</v>
+        <v>2.725422582211852</v>
       </c>
       <c r="C13" t="n">
-        <v>-8.916270894945308</v>
+        <v>-2.33844996868374</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.247323539496628</v>
+        <v>-3.247323539496629</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.5513260548627639</v>
+        <v>1.999553199397179</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.583202424831959</v>
+        <v>-1.277405689510509</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.333070092466587</v>
+        <v>-2.333070092466585</v>
       </c>
       <c r="H13" t="n">
-        <v>-6.989633874342758</v>
+        <v>2.331865281586707</v>
       </c>
       <c r="I13" t="n">
-        <v>-8.183091313295961</v>
+        <v>-2.023441059338821</v>
       </c>
       <c r="J13" t="n">
-        <v>-2.763960568367168</v>
+        <v>-2.76396056836717</v>
       </c>
     </row>
   </sheetData>
